--- a/data/test_prepared.xlsx
+++ b/data/test_prepared.xlsx
@@ -14,12 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>dt</t>
   </si>
   <si>
     <t>Цена на арматуру</t>
+  </si>
+  <si>
+    <t>trend</t>
+  </si>
+  <si>
+    <t>seasonal</t>
   </si>
   <si>
     <t>year</t>
@@ -426,13 +432,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q24"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +490,14 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="2">
         <v>44844</v>
       </c>
@@ -493,52 +505,58 @@
         <v>45000</v>
       </c>
       <c r="C2">
+        <v>43132.14285714286</v>
+      </c>
+      <c r="D2">
+        <v>-164.2857142857231</v>
+      </c>
+      <c r="E2">
         <v>2022</v>
       </c>
-      <c r="D2">
+      <c r="F2">
         <v>10</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
         <v>283</v>
       </c>
-      <c r="G2">
+      <c r="I2">
         <v>4</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>45500</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>45500</v>
-      </c>
-      <c r="J2">
-        <v>46000</v>
-      </c>
-      <c r="K2">
-        <v>46000</v>
       </c>
       <c r="L2">
         <v>46000</v>
       </c>
       <c r="M2">
+        <v>46000</v>
+      </c>
+      <c r="N2">
+        <v>46000</v>
+      </c>
+      <c r="O2">
         <v>45333.33333333334</v>
       </c>
-      <c r="N2">
+      <c r="P2">
         <v>45666.66666666666</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>-500</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>-500</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>-1000</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:19">
       <c r="A3" s="2">
         <v>44851</v>
       </c>
@@ -546,52 +564,58 @@
         <v>44000</v>
       </c>
       <c r="C3">
+        <v>43132.14285714286</v>
+      </c>
+      <c r="D3">
+        <v>-1089.285714285716</v>
+      </c>
+      <c r="E3">
         <v>2022</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>290</v>
       </c>
-      <c r="G3">
+      <c r="I3">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>45000</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>45500</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>45500</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>46000</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>46000</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>44833.33333333334</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>45333.33333333334</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
         <v>-1000</v>
       </c>
-      <c r="P3">
+      <c r="R3">
         <v>-1500</v>
       </c>
-      <c r="Q3">
+      <c r="S3">
         <v>-1500</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:19">
       <c r="A4" s="2">
         <v>44858</v>
       </c>
@@ -599,52 +623,58 @@
         <v>43000</v>
       </c>
       <c r="C4">
+        <v>43132.14285714286</v>
+      </c>
+      <c r="D4">
+        <v>657.1428571428567</v>
+      </c>
+      <c r="E4">
         <v>2022</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>297</v>
       </c>
-      <c r="G4">
+      <c r="I4">
         <v>4</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>44000</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>45000</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>45500</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>45500</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>46000</v>
       </c>
-      <c r="M4">
+      <c r="O4">
         <v>44000</v>
       </c>
-      <c r="N4">
+      <c r="P4">
         <v>44833.33333333334</v>
       </c>
-      <c r="O4">
+      <c r="Q4">
         <v>-1000</v>
       </c>
-      <c r="P4">
+      <c r="R4">
         <v>-2000</v>
       </c>
-      <c r="Q4">
+      <c r="S4">
         <v>-2500</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:19">
       <c r="A5" s="2">
         <v>44865</v>
       </c>
@@ -652,52 +682,58 @@
         <v>42000</v>
       </c>
       <c r="C5">
+        <v>42825</v>
+      </c>
+      <c r="D5">
+        <v>-35.71428571428828</v>
+      </c>
+      <c r="E5">
         <v>2022</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>10</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>304</v>
       </c>
-      <c r="G5">
+      <c r="I5">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>43000</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>44000</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>45000</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>45500</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>45500</v>
       </c>
-      <c r="M5">
+      <c r="O5">
         <v>43000</v>
       </c>
-      <c r="N5">
+      <c r="P5">
         <v>44166.66666666666</v>
       </c>
-      <c r="O5">
+      <c r="Q5">
         <v>-1000</v>
       </c>
-      <c r="P5">
+      <c r="R5">
         <v>-2000</v>
       </c>
-      <c r="Q5">
+      <c r="S5">
         <v>-3000</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:19">
       <c r="A6" s="2">
         <v>44872</v>
       </c>
@@ -705,52 +741,58 @@
         <v>41500</v>
       </c>
       <c r="C6">
+        <v>42546.42857142857</v>
+      </c>
+      <c r="D6">
+        <v>-257.1428571428607</v>
+      </c>
+      <c r="E6">
         <v>2022</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>311</v>
       </c>
-      <c r="G6">
+      <c r="I6">
         <v>4</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>42000</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>43000</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>44000</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>45000</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>45500</v>
       </c>
-      <c r="M6">
+      <c r="O6">
         <v>42166.66666666666</v>
       </c>
-      <c r="N6">
+      <c r="P6">
         <v>43500</v>
       </c>
-      <c r="O6">
+      <c r="Q6">
         <v>-500</v>
       </c>
-      <c r="P6">
+      <c r="R6">
         <v>-1500</v>
       </c>
-      <c r="Q6">
+      <c r="S6">
         <v>-2500</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:19">
       <c r="A7" s="2">
         <v>44879</v>
       </c>
@@ -758,52 +800,58 @@
         <v>41000</v>
       </c>
       <c r="C7">
+        <v>42321.42857142857</v>
+      </c>
+      <c r="D7">
+        <v>-532.1428571428535</v>
+      </c>
+      <c r="E7">
         <v>2022</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>11</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>318</v>
       </c>
-      <c r="G7">
+      <c r="I7">
         <v>4</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>41500</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>42000</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>43000</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>44000</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>45000</v>
       </c>
-      <c r="M7">
+      <c r="O7">
         <v>41500</v>
       </c>
-      <c r="N7">
+      <c r="P7">
         <v>42750</v>
       </c>
-      <c r="O7">
+      <c r="Q7">
         <v>-500</v>
       </c>
-      <c r="P7">
+      <c r="R7">
         <v>-1000</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>-2000</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:19">
       <c r="A8" s="2">
         <v>44886</v>
       </c>
@@ -811,52 +859,58 @@
         <v>40000</v>
       </c>
       <c r="C8">
+        <v>42121.42857142857</v>
+      </c>
+      <c r="D8">
+        <v>-1332.142857142853</v>
+      </c>
+      <c r="E8">
         <v>2022</v>
       </c>
-      <c r="D8">
+      <c r="F8">
         <v>11</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>325</v>
       </c>
-      <c r="G8">
+      <c r="I8">
         <v>4</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>41000</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>41500</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>42000</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>43000</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>44000</v>
       </c>
-      <c r="M8">
+      <c r="O8">
         <v>40833.33333333334</v>
       </c>
-      <c r="N8">
+      <c r="P8">
         <v>41916.66666666666</v>
       </c>
-      <c r="O8">
+      <c r="Q8">
         <v>-1000</v>
       </c>
-      <c r="P8">
+      <c r="R8">
         <v>-1500</v>
       </c>
-      <c r="Q8">
+      <c r="S8">
         <v>-2000</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:19">
       <c r="A9" s="2">
         <v>44893</v>
       </c>
@@ -864,52 +918,58 @@
         <v>40000</v>
       </c>
       <c r="C9">
+        <v>41939.28571428571</v>
+      </c>
+      <c r="D9">
+        <v>-1149.999999999998</v>
+      </c>
+      <c r="E9">
         <v>2022</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>332</v>
       </c>
-      <c r="G9">
+      <c r="I9">
         <v>4</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>40000</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>41000</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>41500</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>42000</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>43000</v>
       </c>
-      <c r="M9">
+      <c r="O9">
         <v>40333.33333333334</v>
       </c>
-      <c r="N9">
+      <c r="P9">
         <v>41250</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>-1000</v>
       </c>
-      <c r="Q9">
+      <c r="S9">
         <v>-1500</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:19">
       <c r="A10" s="2">
         <v>44900</v>
       </c>
@@ -917,52 +977,58 @@
         <v>40500</v>
       </c>
       <c r="C10">
+        <v>41814.28571428571</v>
+      </c>
+      <c r="D10">
+        <v>-524.9999999999984</v>
+      </c>
+      <c r="E10">
         <v>2022</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>339</v>
       </c>
-      <c r="G10">
+      <c r="I10">
         <v>4</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>40000</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>40000</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>41000</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>41500</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>42000</v>
       </c>
-      <c r="M10">
+      <c r="O10">
         <v>40166.66666666666</v>
       </c>
-      <c r="N10">
+      <c r="P10">
         <v>40833.33333333334</v>
       </c>
-      <c r="O10">
+      <c r="Q10">
         <v>500</v>
       </c>
-      <c r="P10">
+      <c r="R10">
         <v>500</v>
       </c>
-      <c r="Q10">
+      <c r="S10">
         <v>-500</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:19">
       <c r="A11" s="2">
         <v>44907</v>
       </c>
@@ -970,52 +1036,58 @@
         <v>41700</v>
       </c>
       <c r="C11">
+        <v>41764.2857142857</v>
+      </c>
+      <c r="D11">
+        <v>725.0000000000089</v>
+      </c>
+      <c r="E11">
         <v>2022</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>12</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>346</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>4</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>40500</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>40000</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>40000</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>41000</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>41500</v>
       </c>
-      <c r="M11">
+      <c r="O11">
         <v>40733.33333333334</v>
       </c>
-      <c r="N11">
+      <c r="P11">
         <v>40783.33333333334</v>
       </c>
-      <c r="O11">
+      <c r="Q11">
         <v>1200</v>
       </c>
-      <c r="P11">
+      <c r="R11">
         <v>1700</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>1700</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:19">
       <c r="A12" s="2">
         <v>44914</v>
       </c>
@@ -1023,52 +1095,58 @@
         <v>41700</v>
       </c>
       <c r="C12">
+        <v>41846.42857142857</v>
+      </c>
+      <c r="D12">
+        <v>642.8571428571465</v>
+      </c>
+      <c r="E12">
         <v>2022</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>12</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>353</v>
       </c>
-      <c r="G12">
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>41700</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>40500</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>40000</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>40000</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>41000</v>
       </c>
-      <c r="M12">
+      <c r="O12">
         <v>41300</v>
       </c>
-      <c r="N12">
+      <c r="P12">
         <v>40816.66666666666</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>1200</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>1700</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:19">
       <c r="A13" s="2">
         <v>44921</v>
       </c>
@@ -1076,52 +1154,58 @@
         <v>42500</v>
       </c>
       <c r="C13">
+        <v>42042.85714285714</v>
+      </c>
+      <c r="D13">
+        <v>1246.428571428567</v>
+      </c>
+      <c r="E13">
         <v>2022</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>12</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>360</v>
       </c>
-      <c r="G13">
+      <c r="I13">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>41700</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>41700</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>40500</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>40000</v>
       </c>
-      <c r="L13">
+      <c r="N13">
         <v>40000</v>
       </c>
-      <c r="M13">
+      <c r="O13">
         <v>41966.66666666666</v>
       </c>
-      <c r="N13">
+      <c r="P13">
         <v>41066.66666666666</v>
       </c>
-      <c r="O13">
+      <c r="Q13">
         <v>800</v>
       </c>
-      <c r="P13">
+      <c r="R13">
         <v>800</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>2000</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:19">
       <c r="A14" s="2">
         <v>44928</v>
       </c>
@@ -1129,52 +1213,58 @@
         <v>42700</v>
       </c>
       <c r="C14">
+        <v>42328.57142857143</v>
+      </c>
+      <c r="D14">
+        <v>1160.714285714284</v>
+      </c>
+      <c r="E14">
         <v>2023</v>
       </c>
-      <c r="D14">
+      <c r="F14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
       </c>
-      <c r="G14">
+      <c r="I14">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>42500</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>41700</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>41700</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>40500</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>40000</v>
       </c>
-      <c r="M14">
+      <c r="O14">
         <v>42300</v>
       </c>
-      <c r="N14">
+      <c r="P14">
         <v>41516.66666666666</v>
       </c>
-      <c r="O14">
+      <c r="Q14">
         <v>200</v>
       </c>
-      <c r="P14">
+      <c r="R14">
         <v>1000</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:19">
       <c r="A15" s="2">
         <v>44935</v>
       </c>
@@ -1182,52 +1272,58 @@
         <v>42700</v>
       </c>
       <c r="C15">
+        <v>42835.71428571428</v>
+      </c>
+      <c r="D15">
+        <v>653.5714285714291</v>
+      </c>
+      <c r="E15">
         <v>2023</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>9</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>1</v>
       </c>
-      <c r="H15">
-        <v>42700</v>
-      </c>
-      <c r="I15">
+      <c r="J15">
+        <v>42700</v>
+      </c>
+      <c r="K15">
         <v>42500</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>41700</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>41700</v>
       </c>
-      <c r="L15">
+      <c r="N15">
         <v>40500</v>
       </c>
-      <c r="M15">
+      <c r="O15">
         <v>42633.33333333334</v>
       </c>
-      <c r="N15">
+      <c r="P15">
         <v>41966.66666666666</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>200</v>
       </c>
-      <c r="Q15">
+      <c r="S15">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:19">
       <c r="A16" s="2">
         <v>44942</v>
       </c>
@@ -1235,52 +1331,58 @@
         <v>42700</v>
       </c>
       <c r="C16">
+        <v>43653.57142857143</v>
+      </c>
+      <c r="D16">
+        <v>-164.2857142857231</v>
+      </c>
+      <c r="E16">
         <v>2023</v>
       </c>
-      <c r="D16">
+      <c r="F16">
         <v>1</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="H16">
-        <v>42700</v>
-      </c>
-      <c r="I16">
-        <v>42700</v>
-      </c>
       <c r="J16">
+        <v>42700</v>
+      </c>
+      <c r="K16">
+        <v>42700</v>
+      </c>
+      <c r="L16">
         <v>42500</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>41700</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>41700</v>
       </c>
-      <c r="M16">
-        <v>42700</v>
-      </c>
-      <c r="N16">
+      <c r="O16">
+        <v>42700</v>
+      </c>
+      <c r="P16">
         <v>42333.33333333334</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
       <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:17">
+    <row r="17" spans="1:19">
       <c r="A17" s="2">
         <v>44949</v>
       </c>
@@ -1288,52 +1390,58 @@
         <v>42800</v>
       </c>
       <c r="C17">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D17">
+        <v>-1089.285714285716</v>
+      </c>
+      <c r="E17">
         <v>2023</v>
       </c>
-      <c r="D17">
+      <c r="F17">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>23</v>
       </c>
-      <c r="G17">
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="H17">
-        <v>42700</v>
-      </c>
-      <c r="I17">
-        <v>42700</v>
-      </c>
       <c r="J17">
         <v>42700</v>
       </c>
       <c r="K17">
+        <v>42700</v>
+      </c>
+      <c r="L17">
+        <v>42700</v>
+      </c>
+      <c r="M17">
         <v>42500</v>
       </c>
-      <c r="L17">
+      <c r="N17">
         <v>41700</v>
       </c>
-      <c r="M17">
+      <c r="O17">
         <v>42733.33333333334</v>
       </c>
-      <c r="N17">
+      <c r="P17">
         <v>42516.66666666666</v>
-      </c>
-      <c r="O17">
-        <v>100</v>
-      </c>
-      <c r="P17">
-        <v>100</v>
       </c>
       <c r="Q17">
         <v>100</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>100</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="2">
         <v>44956</v>
       </c>
@@ -1341,52 +1449,58 @@
         <v>42800</v>
       </c>
       <c r="C18">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D18">
+        <v>657.1428571428567</v>
+      </c>
+      <c r="E18">
         <v>2023</v>
       </c>
-      <c r="D18">
+      <c r="F18">
         <v>1</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>30</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>1</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>42800</v>
       </c>
-      <c r="I18">
-        <v>42700</v>
-      </c>
-      <c r="J18">
-        <v>42700</v>
-      </c>
       <c r="K18">
         <v>42700</v>
       </c>
       <c r="L18">
+        <v>42700</v>
+      </c>
+      <c r="M18">
+        <v>42700</v>
+      </c>
+      <c r="N18">
         <v>42500</v>
       </c>
-      <c r="M18">
+      <c r="O18">
         <v>42766.66666666666</v>
       </c>
-      <c r="N18">
-        <v>42700</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
       <c r="P18">
+        <v>42700</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>100</v>
       </c>
-      <c r="Q18">
+      <c r="S18">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:19">
       <c r="A19" s="2">
         <v>44963</v>
       </c>
@@ -1394,52 +1508,58 @@
         <v>44500</v>
       </c>
       <c r="C19">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D19">
+        <v>-35.71428571428828</v>
+      </c>
+      <c r="E19">
         <v>2023</v>
       </c>
-      <c r="D19">
+      <c r="F19">
         <v>2</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>37</v>
       </c>
-      <c r="G19">
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>42800</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>42800</v>
       </c>
-      <c r="J19">
-        <v>42700</v>
-      </c>
-      <c r="K19">
-        <v>42700</v>
-      </c>
       <c r="L19">
         <v>42700</v>
       </c>
       <c r="M19">
+        <v>42700</v>
+      </c>
+      <c r="N19">
+        <v>42700</v>
+      </c>
+      <c r="O19">
         <v>43366.66666666666</v>
       </c>
-      <c r="N19">
+      <c r="P19">
         <v>43033.33333333334</v>
       </c>
-      <c r="O19">
+      <c r="Q19">
         <v>1700</v>
       </c>
-      <c r="P19">
+      <c r="R19">
         <v>1700</v>
       </c>
-      <c r="Q19">
+      <c r="S19">
         <v>1800</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:19">
       <c r="A20" s="2">
         <v>44970</v>
       </c>
@@ -1447,52 +1567,58 @@
         <v>44500</v>
       </c>
       <c r="C20">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D20">
+        <v>-257.1428571428607</v>
+      </c>
+      <c r="E20">
         <v>2023</v>
       </c>
-      <c r="D20">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>44</v>
       </c>
-      <c r="G20">
+      <c r="I20">
         <v>1</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>44500</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>42800</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>42800</v>
       </c>
-      <c r="K20">
-        <v>42700</v>
-      </c>
-      <c r="L20">
-        <v>42700</v>
-      </c>
       <c r="M20">
+        <v>42700</v>
+      </c>
+      <c r="N20">
+        <v>42700</v>
+      </c>
+      <c r="O20">
         <v>43933.33333333334</v>
       </c>
-      <c r="N20">
+      <c r="P20">
         <v>43333.33333333334</v>
       </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>1700</v>
       </c>
-      <c r="Q20">
+      <c r="S20">
         <v>1700</v>
       </c>
     </row>
-    <row r="21" spans="1:17">
+    <row r="21" spans="1:19">
       <c r="A21" s="2">
         <v>44977</v>
       </c>
@@ -1500,52 +1626,58 @@
         <v>46000</v>
       </c>
       <c r="C21">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D21">
+        <v>-532.1428571428535</v>
+      </c>
+      <c r="E21">
         <v>2023</v>
       </c>
-      <c r="D21">
+      <c r="F21">
         <v>2</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>51</v>
       </c>
-      <c r="G21">
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>44500</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>44500</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>42800</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>42800</v>
       </c>
-      <c r="L21">
-        <v>42700</v>
-      </c>
-      <c r="M21">
+      <c r="N21">
+        <v>42700</v>
+      </c>
+      <c r="O21">
         <v>45000</v>
       </c>
-      <c r="N21">
+      <c r="P21">
         <v>43883.33333333334</v>
       </c>
-      <c r="O21">
+      <c r="Q21">
         <v>1500</v>
       </c>
-      <c r="P21">
+      <c r="R21">
         <v>1500</v>
       </c>
-      <c r="Q21">
+      <c r="S21">
         <v>3200</v>
       </c>
     </row>
-    <row r="22" spans="1:17">
+    <row r="22" spans="1:19">
       <c r="A22" s="2">
         <v>44984</v>
       </c>
@@ -1553,52 +1685,58 @@
         <v>49200</v>
       </c>
       <c r="C22">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D22">
+        <v>-1332.142857142853</v>
+      </c>
+      <c r="E22">
         <v>2023</v>
       </c>
-      <c r="D22">
+      <c r="F22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>58</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>1</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>46000</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>44500</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>44500</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>42800</v>
       </c>
-      <c r="L22">
+      <c r="N22">
         <v>42800</v>
       </c>
-      <c r="M22">
+      <c r="O22">
         <v>46566.66666666666</v>
       </c>
-      <c r="N22">
+      <c r="P22">
         <v>44966.66666666666</v>
       </c>
-      <c r="O22">
+      <c r="Q22">
         <v>3200</v>
       </c>
-      <c r="P22">
+      <c r="R22">
         <v>4700</v>
       </c>
-      <c r="Q22">
+      <c r="S22">
         <v>4700</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
+    <row r="23" spans="1:19">
       <c r="A23" s="2">
         <v>44991</v>
       </c>
@@ -1606,52 +1744,58 @@
         <v>53700</v>
       </c>
       <c r="C23">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D23">
+        <v>-1149.999999999998</v>
+      </c>
+      <c r="E23">
         <v>2023</v>
       </c>
-      <c r="D23">
+      <c r="F23">
         <v>3</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>65</v>
       </c>
-      <c r="G23">
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="H23">
+      <c r="J23">
         <v>49200</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>46000</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>44500</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>44500</v>
       </c>
-      <c r="L23">
+      <c r="N23">
         <v>42800</v>
       </c>
-      <c r="M23">
+      <c r="O23">
         <v>49633.33333333334</v>
       </c>
-      <c r="N23">
+      <c r="P23">
         <v>46783.33333333334</v>
       </c>
-      <c r="O23">
+      <c r="Q23">
         <v>4500</v>
       </c>
-      <c r="P23">
+      <c r="R23">
         <v>7700</v>
       </c>
-      <c r="Q23">
+      <c r="S23">
         <v>9200</v>
       </c>
     </row>
-    <row r="24" spans="1:17">
+    <row r="24" spans="1:19">
       <c r="A24" s="2">
         <v>44998</v>
       </c>
@@ -1659,48 +1803,54 @@
         <v>55500</v>
       </c>
       <c r="C24">
+        <v>44678.57142857143</v>
+      </c>
+      <c r="D24">
+        <v>-524.9999999999984</v>
+      </c>
+      <c r="E24">
         <v>2023</v>
       </c>
-      <c r="D24">
+      <c r="F24">
         <v>3</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>72</v>
       </c>
-      <c r="G24">
+      <c r="I24">
         <v>1</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>53700</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>49200</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>46000</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>44500</v>
       </c>
-      <c r="L24">
+      <c r="N24">
         <v>44500</v>
       </c>
-      <c r="M24">
+      <c r="O24">
         <v>52800</v>
       </c>
-      <c r="N24">
+      <c r="P24">
         <v>48900</v>
       </c>
-      <c r="O24">
+      <c r="Q24">
         <v>1800</v>
       </c>
-      <c r="P24">
+      <c r="R24">
         <v>6300</v>
       </c>
-      <c r="Q24">
+      <c r="S24">
         <v>9500</v>
       </c>
     </row>
